--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbindas/Documents/BU/2023/CS777/termpaper/cs777-termpaper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbindas/Documents/BU/2023/CS777/termpaper/cs777-termpaper/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D47F48-AB21-F749-8D37-9303963D6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5D765-E1A2-2443-89DC-0179747A7FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27100" windowHeight="15100" xr2:uid="{F8C45C39-9EA8-9B43-9C0F-A758C27E4B77}"/>
   </bookViews>
@@ -17,9 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$D$2:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -751,7 +748,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1950,15 +1947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:colOff>1581150</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2306,7 +2303,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2377,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D19" si="0">C4*$F$2</f>
+        <f t="shared" ref="D4:D7" si="0">C4*$F$2</f>
         <v>65945.600000000006</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbindas/Documents/BU/2023/CS777/termpaper/cs777-termpaper/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5D765-E1A2-2443-89DC-0179747A7FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00136BA3-CE08-B04A-B9AF-3CC4D79C464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27100" windowHeight="15100" xr2:uid="{F8C45C39-9EA8-9B43-9C0F-A758C27E4B77}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="15100" xr2:uid="{F8C45C39-9EA8-9B43-9C0F-A758C27E4B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexbindas/Documents/BU/2023/CS777/termpaper/cs777-termpaper/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00136BA3-CE08-B04A-B9AF-3CC4D79C464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58576BDC-5DFF-DB4E-9F35-8B9506724AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="15100" xr2:uid="{F8C45C39-9EA8-9B43-9C0F-A758C27E4B77}"/>
+    <workbookView xWindow="41280" yWindow="-1240" windowWidth="25480" windowHeight="19440" xr2:uid="{F8C45C39-9EA8-9B43-9C0F-A758C27E4B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1912,14 +1912,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1460500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84281</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1946,16 +1946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11546</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107372</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2302,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38036569-9B17-874E-9B9D-CC7CF32ADE91}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2475,20 +2475,11 @@
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8">
-        <f>C11*$F$2</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
